--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06</v>
+        <v>0.033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.24</v>
+        <v>0.401</v>
       </c>
       <c r="D4" t="n">
-        <v>300</v>
+        <v>1115.15</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188</v>
+        <v>0.466</v>
       </c>
       <c r="D5" t="n">
-        <v>571.4299999999999</v>
+        <v>2018.18</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.057</v>
+        <v>0.022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18</v>
+        <v>0.195</v>
       </c>
       <c r="D6" t="n">
-        <v>215.79</v>
+        <v>786.36</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.323813530849293</v>
+        <v>1.330793906003237</v>
       </c>
       <c r="C4" t="n">
-        <v>2.015122094540857</v>
+        <v>2.050234093912877</v>
       </c>
       <c r="D4" t="n">
-        <v>52.22</v>
+        <v>54.06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3555030592162538</v>
+        <v>0.4215771227532578</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1818768012671657</v>
+        <v>0.2848292251175599</v>
       </c>
       <c r="G4" t="n">
-        <v>-48.84</v>
+        <v>-32.44</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>42.655</v>
       </c>
       <c r="C5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="D5" t="n">
-        <v>0.58</v>
+        <v>-0.22</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.17653516685975</v>
+        <v>10.93676857264928</v>
       </c>
       <c r="C6" t="n">
-        <v>8.75148056312789</v>
+        <v>9.709228891691934</v>
       </c>
       <c r="D6" t="n">
-        <v>-14</v>
+        <v>-11.22</v>
       </c>
       <c r="E6" t="n">
-        <v>1.827138248474626</v>
+        <v>1.240759743159655</v>
       </c>
       <c r="F6" t="n">
-        <v>1.54649453277171</v>
+        <v>0.9553534768582056</v>
       </c>
       <c r="G6" t="n">
-        <v>-15.36</v>
+        <v>-23</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.033</v>
+        <v>0.418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.401</v>
+        <v>0.364</v>
       </c>
       <c r="D4" t="n">
-        <v>1115.15</v>
+        <v>-12.92</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.022</v>
+        <v>0.467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.466</v>
+        <v>0.358</v>
       </c>
       <c r="D5" t="n">
-        <v>2018.18</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.022</v>
+        <v>0.388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195</v>
+        <v>0.288</v>
       </c>
       <c r="D6" t="n">
-        <v>786.36</v>
+        <v>-25.77</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.330793906003237</v>
+        <v>1.459391155862249</v>
       </c>
       <c r="C4" t="n">
-        <v>2.050234093912877</v>
+        <v>2.072081064339727</v>
       </c>
       <c r="D4" t="n">
-        <v>54.06</v>
+        <v>41.98</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4215771227532578</v>
+        <v>0.4719698753438309</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2848292251175599</v>
+        <v>0.2773153424534715</v>
       </c>
       <c r="G4" t="n">
-        <v>-32.44</v>
+        <v>-41.24</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>42.655</v>
       </c>
       <c r="C5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.22</v>
+        <v>-6.76</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.93676857264928</v>
+        <v>10.6703391673645</v>
       </c>
       <c r="C6" t="n">
-        <v>9.709228891691934</v>
+        <v>9.041614465819125</v>
       </c>
       <c r="D6" t="n">
-        <v>-11.22</v>
+        <v>-15.26</v>
       </c>
       <c r="E6" t="n">
-        <v>1.240759743159655</v>
+        <v>1.749735924318217</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9553534768582056</v>
+        <v>1.546395827070386</v>
       </c>
       <c r="G6" t="n">
-        <v>-23</v>
+        <v>-11.62</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
